--- a/Data/Arabidopsis-T87-timeseries-NaCl-by-metabolite-BioCyc-Master.xlsx
+++ b/Data/Arabidopsis-T87-timeseries-NaCl-by-metabolite-BioCyc-Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpearce/Documents/MSc_Applied_Bioinformatics/Research/MSc/bioSOM/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCB2624-188F-0D44-A70E-4A006A5021BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CAF903-94DE-B045-9220-B68A683335C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23580" yWindow="10540" windowWidth="26440" windowHeight="15440" xr2:uid="{BDBEC983-3931-EC4E-A72E-D3F8D1FDC358}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Pyruvate</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>Removed as plural and too general</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>BioCyC Name</t>
   </si>
 </sst>
 </file>
@@ -677,6 +683,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
       <c r="C1">
         <v>0.5</v>
       </c>
